--- a/DbLayouts/L6-共同作業/AcAcctCheckDetail.xlsx
+++ b/DbLayouts/L6-共同作業/AcAcctCheckDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-10-19 Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C0DBC-1237-4FAC-8693-DD2B736E0A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E0C3C-6300-4849-B91A-A7B73B10D863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1144,36 +1144,36 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>34</v>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="24">
+        <v>70</v>
+      </c>
+      <c r="E12" s="16">
         <v>3</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16">
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="24">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="25"/>
@@ -1182,36 +1182,36 @@
       <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="16">
-        <v>7</v>
+      <c r="B14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="24">
+        <v>20</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>56</v>
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="20"/>
@@ -1221,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>19</v>
@@ -1240,20 +1240,18 @@
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="16">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
@@ -1261,10 +1259,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>19</v>
@@ -1282,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>19</v>
@@ -1296,98 +1294,142 @@
       <c r="F19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="29" customFormat="1">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="27">
-        <v>6</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="29" customFormat="1">
       <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>39</v>
+      <c r="B21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="27">
+        <v>6</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="29" customFormat="1">
       <c r="A22" s="16">
         <v>14</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="31">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E22" s="31"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" s="29" customFormat="1">
       <c r="A23" s="16">
         <v>15</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="E23" s="31">
+        <v>6</v>
+      </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" s="29" customFormat="1">
       <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>69</v>
+      <c r="B24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="16">
-        <v>3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
